--- a/pred_ohlcv/54_21/2020-01-13 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 ABT ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>70351.93221076924</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>70351.93221076924</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>56198.60659915634</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>56438.34929915635</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>57852.28909915635</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>56281.11179915634</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>48803.04521800934</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>49504.52561800934</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-5074.880181990658</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>34556.46413350889</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>51185.38983350889</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>39449.3062053389</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>27890.1283053389</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>25870.37153185824</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>234772.4514048191</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>335722.5857146445</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>335510.7045584114</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>334414.3447584115</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>327045.1728584114</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>329653.3545584115</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>329653.3545584115</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>329653.3545584115</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>332170.3379584115</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>328399.5521584115</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>328399.5521584115</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>328399.5521584115</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>327811.4184584115</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>320390.1366584115</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>320390.1366584115</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>332244.7884584115</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>333248.7884584115</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>328580.1183584115</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>328580.1183584115</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>329080.1183584115</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>324466.7172584115</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>326293.6868584115</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>334120.5042584115</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>315140.3441584115</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>315983.3148584115</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>315855.4952584115</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>315855.4952584115</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>314093.9626584115</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>313062.8979584115</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>314952.4069584116</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>311299.9731584116</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>307544.5435584116</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>309294.5435584116</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>309294.5435584116</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>312047.3411584116</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>311915.2389584116</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>311915.2389584116</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>309755.0529584116</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>309755.0529584116</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>309755.0529584116</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>308819.1894584116</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>309877.0940584116</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>308837.8052584116</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>309083.3152584116</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>309083.3152584116</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>302942.6965584116</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>304442.6965584116</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 ABT ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>17376.5063</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>70351.93221076924</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>70351.93221076924</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>56198.60659915634</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>56438.34929915635</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>57852.28909915635</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>56281.11179915634</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>48803.04521800934</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>49504.52561800934</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-5074.880181990658</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>34556.46413350889</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>51185.38983350889</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>39449.3062053389</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>27890.1283053389</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>25870.37153185824</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>225772.4881180704</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>212632.6535542406</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>221372.5006938379</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>218703.4229938379</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>218747.9644938379</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>216837.2782048191</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>216837.2782048191</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>219772.9359048191</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>235272.4514048191</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>234772.4514048191</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>234772.4514048191</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>236116.3144048191</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>236116.3144048191</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>232990.6567048191</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>232990.6567048191</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>223411.1117048191</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>223411.1117048191</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>220992.3152048191</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>216069.8994620269</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>233547.7101620269</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>255857.0652620269</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>247306.0327620269</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>249340.5207620269</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>244736.8933620269</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>244789.0695620269</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>242236.5833620269</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>242736.5833620269</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>245551.2542620269</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>245551.2542620269</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>245551.2542620269</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>247465.6189620269</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>252113.7173620269</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>255151.6558620269</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>250021.9961620269</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>250321.9961620269</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>248058.5725620269</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>247816.5725620269</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>246100.9361620269</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>280844.1625146445</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>283469.2949146445</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>335722.5857146445</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>334147.0793146445</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>333771.5251226499</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>334278.1111226499</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>334298.1257226499</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>335510.7045584114</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>334414.3447584115</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>327045.1728584114</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>329653.3545584115</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>329653.3545584115</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>332170.3379584115</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>328399.5521584115</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>328399.5521584115</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>332244.7884584115</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>333248.7884584115</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>328580.1183584115</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>328580.1183584115</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>329080.1183584115</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>324466.7172584115</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>332340.5675584115</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>326293.6868584115</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>334120.5042584115</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>315140.3441584115</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>315983.3148584115</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>315855.4952584115</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>315855.4952584115</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>314093.9626584115</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>312047.3411584116</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>311915.2389584116</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>311915.2389584116</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>309755.0529584116</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>309755.0529584116</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>309755.0529584116</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>308819.1894584116</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>309877.0940584116</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>308837.8052584116</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>309083.3152584116</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>309083.3152584116</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>302942.6965584116</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>304442.6965584116</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
